--- a/500all/speech_level/speeches_CHRG-114hhrg94837.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94837.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. The Subcommittee on National Security will come to order.    Without objection, the chair is authorized to declare a recess at any time.    Since 2002, the United States has appropriated more than $107 billion for relief and reconstruction in Afghanistan. These funds are provided to assist once Afghanistan in building its national security forces, promoting good governance, conduct development assist, and engage in counter-narcotics and anti-corruption efforts.    For Fiscal Year 2016, the President has requested more than $5.3 billion in additional reconstruction funding for Afghanistan, consisting of over $1.5 billion for State U.S. Agency for International Development, USAID efforts and $3.8 billion for the DOD to train, equip, and sustain the Afghan National Security Forces, which include the Afghan army and police.    Congress created the Office of Special Inspector General for Afghanistan Reconstruction, SIGAR, to provide independent and objective oversight of Afghanistan reconstruction projects and activities. Two recent reports from SIGAR on personnel and payroll data have called into question how efficiently U.S. funds have been spent on the Afghan National Security Forces and how effective that funding has been. In a January 2015 report, SIGAR found that the process used by the Afghan National Police for collecting attendance data, which forms the basis of all Afghan National Police personnel and payroll data, has ``weak controls and limited oversight.''    To ensure that attendance data is correct, Afghan Police personnel are supposed to sign in and out on a roster daily. According to SIGAR, though, even these rudimentary safeguards are not followed. Instead, it was found that commanding officers have been recording and reporting patrolman attendance manually as part of daily food provision requirements. Because personnel receive a cash stipend to purchase food for each day they work, a lack of oversight controls could incentivize commanding officers to falsify officers' attendance to obtain this stipend.    SIGAR found no examples of direct oversight during attendance data collection and reporting to ensure that such malfeasance did not occur, and police personnel could therefore collect pay for days that they did not work. Moreover, SIGAR determined that data systems used to store, access, transfer and use police personnel and payroll data contained incomplete and incorrect data and weak internal controls. Finally, not even the unique identification number issued to each member of the force is being used consistently or effectively to track attendance and to pay salaries.    Similar issues were identified in a report SIGAR issued yesterday on payroll and personnel issues in the Afghan National Army. In that report, SIGAR found that the only control in place at the unit level to ensure accurate attendance reporting on a day-to-day basis, a roster that individual army and air force personnel sign daily, was not consistently used across Afghan National Army locations.    Specifically, although two of the three units that SIGAR visited presented signed roster books, the third roster book did not contain such signatures. Rather, attendance was verified by checkmarks apparently entered by a single individual. Even where rosters were used as intended, Government officials did not observe the signing of the rosters, review the rosters for verification purposes, or reconcile them against other personnel or payroll data.    SIGAR found that these weaknesses in Afghan National Army attendance data collection process could result in personnel being paid for days that they did not work. Further, it found that as U.S. and coalition forces draw down in Afghanistan, the U.S. Government will become even more dependent on the ability of the Afghan Ministry of Defense to verify the accuracy of the personnel and payroll data it collects. Unless and until the Ministry develops the capability to ensure and verify the accuracy of this data, SIGAR determined, ``there is a significant risk that U.S. funding for Afghan National Army salaries will be wasted or abused.''    The payroll and attendance data collected by the Afghan National Security Forces has two purposes. First, it is collected to ensure that officers are paid for the days they work and are not paid for the days they don't. In addition to ensuring against corruption, accurate payroll data helps protect the American public's money by making it more likely that U.S. aid is spent appropriately.    Of equal importance is the fact that the data is collected to assist the Afghan National Security Forces in assessing whether they have the manpower that they need to carry out their crucial mission of protecting the Afghani people and, by extension, American interests. SIGAR's findings call into question how effectively U.S. taxpayer dollars are being spent in Afghanistan and whether a different scheme for U.S. funding to the Afghan National Security Forces is needed to achieve the dual goals of protecting the Afghani people and advancing U.S. security interests in Afghanistan.    The subcommittee will address these two issues with Mr. Sopko today.    I now recognize the gentleman from Massachusetts, Mr. Lynch, the ranking member, for his opening Statement.</t>
   </si>
   <si>
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. I would like to, first of all, thank you for holding this hearing to examine the recent audit reports issued by the Special Inspector General for Afghan Reconstruction on the accuracy of the Afghan National Security Forces data, and I would also like to thank Inspector General Sopko for helping the subcommittee with its work.    As announced by President Obama on December 28, 2014, the U.S.-led international security assistance forces combat mission in Afghanistan has not only concluded after over 13 years from its inception. During Afghan President Ashraf Ghani's recent visit to the U.S. last month, President Obama announced that the number of U.S. forces in Afghanistan will now remain at approximately 10,000 through the end of the fiscal year.    The President noted that the majority of these U.S. forces are currently deployed in a training and advisory capacity in furtherance of the NATO-led mission, Resolute Support, that began on January 1st, 2015, approximately 1,000 U.S. special ops personnel supporting regional counter-terrorism operations as well.    Given that additional training of Afghan National Security Forces is now our primary mission in Afghanistan, it is absolutely critical that the Afghan government provide the U.S. and our NATO partners with reliable and accurate data regarding the size and strengthen of the Afghan National Police and the Afghan National Army.    As noted by Inspector General Sopko in his April 2015 quarterly report to Congress, ``Numbers matter. In Afghanistan, some numbers have a life and death weight to them. Without reliable data on Afghan National Security Forces strength, the United States cannot determine whether the billions of dollars it has spent on recruiting, training, equipping, and sustaining the Afghan National Security Forces since Fiscal Year 2002 has been spent properly or accurately calculate what additional funding may be needed.''    Precise data is essential to our determinations of the Afghan government's ability to provide adequate security for its citizens against the Taliban insurgency and attacks by Al Qaeda and other terrorist groups. Accurate data also provides a basis for U.S. and Coalition decisions on the pace of withdrawal and the scope of our counter-terrorism missions.    Regrettably, the two recent audits conducted by Inspector General Sopko of personnel and payroll records provide good reason to doubt the accuracy of Afghan data. In particular, in January 2015, audit reports on the Afghan National Police found that there is no documentation that unit commanders are accurately reporting personnel attendance or that police personnel are receiving their full share of their salaries. Officials appointed by the Ministry of Interior could be taking as much as half of a policeman's salary.    According to an audit report on the Afghan National Army released by the Inspector General just today, a daily sign-in roster is the only mechanism in place to collect National Army attendance data, and it is not used across army posts nationwide. In addition, the Ministry of Defense still calculates National Army salaries using a manual process that is highly susceptible to manipulation.    Furthermore, the audit highlights the irregular use of National Army-issued identification cards. This is particularly troubling given the incidents of green-on-blue attacks in Afghanistan, most recently, and regrettably, on April 9th, when U.S. Army Specialist John M. Dawson, of Whitinsville, Massachusetts, was killed by an Afghan soldier in Jalalabad, and my prayers and thoughts are with his family.    The absence of reliable data on the Afghan National Security Forces aggravates the potential for the waste, fraud, and abuse of U.S. taxpayer dollars. It also compromises the safety of our remaining U.S. and international troops in Afghanistan.    Mr. Chairman, I look forward to examining the inspector general's various recommendations in his report on how to enhance the reliability of the critical data and yield the balance of my time.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Sopko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sopko. Thank you very much, Chairman DeSantis, Ranking Member Lynch, and members of the subcommittee. I am pleased to testify today about SIGAR's recent work on the Afghan National Security Forces personnel and payroll systems, and the Afghan government's capacity to manage and account for U.S. on-budget assistance.    Over the past 14 years, the United States has spent approximately $1 trillion and has lost thousands of lives to build a secure and stable Afghanistan that will never again be a safe haven for terrorists. Of that amount, almost $110 billion has been invested to create a capable and competent Afghan government that can provide security and basic services to its people. More importantly, the United States has committed to spend billions more over the years to come to sustain the Afghan government we helped create.    Properly overseeing these funds is essential to ensuring that this vast investment in Afghanistan does not go to waste. Every dollar we spend now on training, advising, and assisting the Afghans, as well as, and I would say more importantly, on oversight should be viewed as insurance to protect our 14-year investment. We at SIGAR are concerned that managing and overseeing this massive ongoing effort is being left to a decreasing number of U.S. military and civilian personnel in Afghanistan.    With limited resources to conduct the reconstruction mission, transparency and oversight are more important than ever, especially now that we appear to have a willing partner in the new National Unity Government of President Ashraf Ghani and Chief Executive Officer Abdullah Abdullah.    Because of our draw-down, U.S. decisionmakers and implementing agencies have become more reliant on obtaining accurate and reliable data on the reconstruction effort produced by the Afghan government. This includes basic information on the numbering capacity of Afghan soldiers and police.    Unfortunately, as my written testimony highlights, neither the United States nor our Afghan allies truly know how many Afghan soldiers and police are available for duty or, by extension, the true nature of their operational capability. Such basic information is especially critical now, as we enter the 2015 fighting season with the Afghans being fully responsible for their own security.    The importance of accurate and reliable personnel data to the United States and Afghan governments cannot be overStated. Every professional standing army or police force begins each day by identifying how many personnel are present for duty and what their capabilities are. In Afghanistan, this data will also determine the overall amount of U.S. funding for the ANSF.    I think The New York Times story, that broke just before noon, about the Afghan military operations and U.S. military operations highlight the importance of knowing what is the capability of the Afghan forces.    As the United States continues to shift its reconstruction funding to on-budget assistance, it is also important that this assistance be based on accurate and reliable data, and that the Afghan government is able to manage and account for such funds. Again, SIGAR's work shows that the Afghan government still lacks the capacity to do so.    The withdrawal of U.S. military and civilian personnel, as I said, is making this even more challenging to manage and oversee the reconstruction effort. Likewise, audit and law enforcement agencies have substantially reduced the number of staff they have based in Afghanistan. For example, the other IGs in law enforcement agencies have reduced their in-country staff by 45 percent, and may reduce it further as the State Department seeks to ``normalize'' civilian personnel staffing in Afghanistan. By mid-summer 2015, four other U.S. investigative agencies have indicated they intend to completely leave Afghanistan.    Since I was appointed Special Inspector General almost 3 years ago, I believe SIGAR has conducted highly effective, productive, and independent oversight. But our ability to do so may now be at risk. Just this past week, the U.S. embassy in Kabul informed SIGAR that because of the State Department requirement to normalize or right-size the civilian presence in Afghanistan, SIGAR must reduce its staff by 40 percent, from 42 to 25 deployed positions by the summer of 2016. SIGAR was told just Monday, at a senior leadership meeting at our embassy in Kabul, by a senior member of the embassy team, that that cut was non-negotiable. To be more precise, do not come back with an alternative number.    We were not consulted about this number, nor were we given any explanation for how this arbitrary number was determined.    Now, I am concerned about the impact these cuts will have on SIGAR's mission and on the U.S. reconstruction mission on a whole, because SIGAR is the largest oversight body in Afghanistan. While the U.S. reconstruction effort may have declined, compared to its highpoint, Afghanistan is still the largest single recipient of U.S. foreign assistance, and is projected to remain so for years to come. In other words, while our troops may be coming home, the checks will still be going over there for some time to come.    Thank you, Mr. Chairman, and I look forward to your questions.</t>
   </si>
   <si>
@@ -193,9 +184,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice [presiding]. Yes, sir, please.</t>
   </si>
   <si>
@@ -248,9 +236,6 @@
   </si>
   <si>
     <t>412638</t>
-  </si>
-  <si>
-    <t>Brenda L. Lawrence</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Lawrence. Thank you, Mr. Chair.    Thank you, Mr. Sopko, for being here today. Ensuring that the daily attendance of Afghan police and military personnel is collected and recorded in an accurate manner is essential. I do want to say about your Statement that an H.R. system is put into place, my career prior to coming here to Congress involved almost 30 years in HR. So I find it unacceptable and hard to understand how we are paying people without having an H.R. system that validates who we are paying.    But with that being said, we know we can't have an effective personnel and payroll system if we don't know who showed up for work, simple roll call, and how often they were there. You agree, you made that Statement. So let's look at the ANA signature reporting for a moment.    In the report being released today, SIGAR found that the only control in place at the unit level to ensure accurate reporting on a day-to-day basis was a sign-in roster. Do I have that correct?</t>
@@ -790,11 +775,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -814,13 +797,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -842,11 +823,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -868,11 +847,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -892,13 +869,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -920,11 +895,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -944,13 +917,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -972,11 +943,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -996,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1024,11 +991,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1048,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1076,11 +1039,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1100,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1128,11 +1087,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1152,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1180,11 +1135,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1204,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1232,11 +1183,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1256,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1282,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1308,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1334,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1360,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1386,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1412,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1438,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1464,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1490,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1516,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1542,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1568,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1594,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1620,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1646,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1672,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1698,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1724,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1750,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1776,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1802,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1828,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1854,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1880,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1906,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1932,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1958,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1984,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2010,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2036,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2062,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2088,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2114,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2140,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2166,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
-      </c>
-      <c r="G55" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2192,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2218,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
-      </c>
-      <c r="G57" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2244,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2270,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
-      </c>
-      <c r="G59" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2296,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
-      </c>
-      <c r="G60" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2322,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2348,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G62" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2374,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2400,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
         <v>78</v>
-      </c>
-      <c r="H64" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2426,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2452,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2478,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2504,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2530,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2556,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G70" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2582,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2608,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>77</v>
-      </c>
-      <c r="G72" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2634,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2660,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>77</v>
-      </c>
-      <c r="G74" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2686,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>58</v>
-      </c>
-      <c r="G75" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2712,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2738,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2764,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2790,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2816,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2842,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2868,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2894,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2920,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2946,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2972,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2998,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3024,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3050,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3076,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3102,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3128,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3154,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3180,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3206,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>58</v>
-      </c>
-      <c r="G95" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3232,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3258,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>58</v>
-      </c>
-      <c r="G97" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3284,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3310,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>58</v>
-      </c>
-      <c r="G99" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3336,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3362,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>58</v>
-      </c>
-      <c r="G101" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3388,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3414,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>58</v>
-      </c>
-      <c r="G103" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3440,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3466,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>58</v>
-      </c>
-      <c r="G105" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3492,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3518,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>58</v>
-      </c>
-      <c r="G107" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94837.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94837.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412526</t>
   </si>
   <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeSantis. The Subcommittee on National Security will come to order.    Without objection, the chair is authorized to declare a recess at any time.    Since 2002, the United States has appropriated more than $107 billion for relief and reconstruction in Afghanistan. These funds are provided to assist once Afghanistan in building its national security forces, promoting good governance, conduct development assist, and engage in counter-narcotics and anti-corruption efforts.    For Fiscal Year 2016, the President has requested more than $5.3 billion in additional reconstruction funding for Afghanistan, consisting of over $1.5 billion for State U.S. Agency for International Development, USAID efforts and $3.8 billion for the DOD to train, equip, and sustain the Afghan National Security Forces, which include the Afghan army and police.    Congress created the Office of Special Inspector General for Afghanistan Reconstruction, SIGAR, to provide independent and objective oversight of Afghanistan reconstruction projects and activities. Two recent reports from SIGAR on personnel and payroll data have called into question how efficiently U.S. funds have been spent on the Afghan National Security Forces and how effective that funding has been. In a January 2015 report, SIGAR found that the process used by the Afghan National Police for collecting attendance data, which forms the basis of all Afghan National Police personnel and payroll data, has ``weak controls and limited oversight.''    To ensure that attendance data is correct, Afghan Police personnel are supposed to sign in and out on a roster daily. According to SIGAR, though, even these rudimentary safeguards are not followed. Instead, it was found that commanding officers have been recording and reporting patrolman attendance manually as part of daily food provision requirements. Because personnel receive a cash stipend to purchase food for each day they work, a lack of oversight controls could incentivize commanding officers to falsify officers' attendance to obtain this stipend.    SIGAR found no examples of direct oversight during attendance data collection and reporting to ensure that such malfeasance did not occur, and police personnel could therefore collect pay for days that they did not work. Moreover, SIGAR determined that data systems used to store, access, transfer and use police personnel and payroll data contained incomplete and incorrect data and weak internal controls. Finally, not even the unique identification number issued to each member of the force is being used consistently or effectively to track attendance and to pay salaries.    Similar issues were identified in a report SIGAR issued yesterday on payroll and personnel issues in the Afghan National Army. In that report, SIGAR found that the only control in place at the unit level to ensure accurate attendance reporting on a day-to-day basis, a roster that individual army and air force personnel sign daily, was not consistently used across Afghan National Army locations.    Specifically, although two of the three units that SIGAR visited presented signed roster books, the third roster book did not contain such signatures. Rather, attendance was verified by checkmarks apparently entered by a single individual. Even where rosters were used as intended, Government officials did not observe the signing of the rosters, review the rosters for verification purposes, or reconcile them against other personnel or payroll data.    SIGAR found that these weaknesses in Afghan National Army attendance data collection process could result in personnel being paid for days that they did not work. Further, it found that as U.S. and coalition forces draw down in Afghanistan, the U.S. Government will become even more dependent on the ability of the Afghan Ministry of Defense to verify the accuracy of the personnel and payroll data it collects. Unless and until the Ministry develops the capability to ensure and verify the accuracy of this data, SIGAR determined, ``there is a significant risk that U.S. funding for Afghan National Army salaries will be wasted or abused.''    The payroll and attendance data collected by the Afghan National Security Forces has two purposes. First, it is collected to ensure that officers are paid for the days they work and are not paid for the days they don't. In addition to ensuring against corruption, accurate payroll data helps protect the American public's money by making it more likely that U.S. aid is spent appropriately.    Of equal importance is the fact that the data is collected to assist the Afghan National Security Forces in assessing whether they have the manpower that they need to carry out their crucial mission of protecting the Afghani people and, by extension, American interests. SIGAR's findings call into question how effectively U.S. taxpayer dollars are being spent in Afghanistan and whether a different scheme for U.S. funding to the Afghan National Security Forces is needed to achieve the dual goals of protecting the Afghani people and advancing U.S. security interests in Afghanistan.    The subcommittee will address these two issues with Mr. Sopko today.    I now recognize the gentleman from Massachusetts, Mr. Lynch, the ranking member, for his opening Statement.</t>
   </si>
   <si>
     <t>400249</t>
   </si>
   <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. I would like to, first of all, thank you for holding this hearing to examine the recent audit reports issued by the Special Inspector General for Afghan Reconstruction on the accuracy of the Afghan National Security Forces data, and I would also like to thank Inspector General Sopko for helping the subcommittee with its work.    As announced by President Obama on December 28, 2014, the U.S.-led international security assistance forces combat mission in Afghanistan has not only concluded after over 13 years from its inception. During Afghan President Ashraf Ghani's recent visit to the U.S. last month, President Obama announced that the number of U.S. forces in Afghanistan will now remain at approximately 10,000 through the end of the fiscal year.    The President noted that the majority of these U.S. forces are currently deployed in a training and advisory capacity in furtherance of the NATO-led mission, Resolute Support, that began on January 1st, 2015, approximately 1,000 U.S. special ops personnel supporting regional counter-terrorism operations as well.    Given that additional training of Afghan National Security Forces is now our primary mission in Afghanistan, it is absolutely critical that the Afghan government provide the U.S. and our NATO partners with reliable and accurate data regarding the size and strengthen of the Afghan National Police and the Afghan National Army.    As noted by Inspector General Sopko in his April 2015 quarterly report to Congress, ``Numbers matter. In Afghanistan, some numbers have a life and death weight to them. Without reliable data on Afghan National Security Forces strength, the United States cannot determine whether the billions of dollars it has spent on recruiting, training, equipping, and sustaining the Afghan National Security Forces since Fiscal Year 2002 has been spent properly or accurately calculate what additional funding may be needed.''    Precise data is essential to our determinations of the Afghan government's ability to provide adequate security for its citizens against the Taliban insurgency and attacks by Al Qaeda and other terrorist groups. Accurate data also provides a basis for U.S. and Coalition decisions on the pace of withdrawal and the scope of our counter-terrorism missions.    Regrettably, the two recent audits conducted by Inspector General Sopko of personnel and payroll records provide good reason to doubt the accuracy of Afghan data. In particular, in January 2015, audit reports on the Afghan National Police found that there is no documentation that unit commanders are accurately reporting personnel attendance or that police personnel are receiving their full share of their salaries. Officials appointed by the Ministry of Interior could be taking as much as half of a policeman's salary.    According to an audit report on the Afghan National Army released by the Inspector General just today, a daily sign-in roster is the only mechanism in place to collect National Army attendance data, and it is not used across army posts nationwide. In addition, the Ministry of Defense still calculates National Army salaries using a manual process that is highly susceptible to manipulation.    Furthermore, the audit highlights the irregular use of National Army-issued identification cards. This is particularly troubling given the incidents of green-on-blue attacks in Afghanistan, most recently, and regrettably, on April 9th, when U.S. Army Specialist John M. Dawson, of Whitinsville, Massachusetts, was killed by an Afghan soldier in Jalalabad, and my prayers and thoughts are with his family.    The absence of reliable data on the Afghan National Security Forces aggravates the potential for the waste, fraud, and abuse of U.S. taxpayer dollars. It also compromises the safety of our remaining U.S. and international troops in Afghanistan.    Mr. Chairman, I look forward to examining the inspector general's various recommendations in his report on how to enhance the reliability of the critical data and yield the balance of my time.</t>
   </si>
   <si>
@@ -70,6 +85,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Sopko</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sopko. Thank you very much, Chairman DeSantis, Ranking Member Lynch, and members of the subcommittee. I am pleased to testify today about SIGAR's recent work on the Afghan National Security Forces personnel and payroll systems, and the Afghan government's capacity to manage and account for U.S. on-budget assistance.    Over the past 14 years, the United States has spent approximately $1 trillion and has lost thousands of lives to build a secure and stable Afghanistan that will never again be a safe haven for terrorists. Of that amount, almost $110 billion has been invested to create a capable and competent Afghan government that can provide security and basic services to its people. More importantly, the United States has committed to spend billions more over the years to come to sustain the Afghan government we helped create.    Properly overseeing these funds is essential to ensuring that this vast investment in Afghanistan does not go to waste. Every dollar we spend now on training, advising, and assisting the Afghans, as well as, and I would say more importantly, on oversight should be viewed as insurance to protect our 14-year investment. We at SIGAR are concerned that managing and overseeing this massive ongoing effort is being left to a decreasing number of U.S. military and civilian personnel in Afghanistan.    With limited resources to conduct the reconstruction mission, transparency and oversight are more important than ever, especially now that we appear to have a willing partner in the new National Unity Government of President Ashraf Ghani and Chief Executive Officer Abdullah Abdullah.    Because of our draw-down, U.S. decisionmakers and implementing agencies have become more reliant on obtaining accurate and reliable data on the reconstruction effort produced by the Afghan government. This includes basic information on the numbering capacity of Afghan soldiers and police.    Unfortunately, as my written testimony highlights, neither the United States nor our Afghan allies truly know how many Afghan soldiers and police are available for duty or, by extension, the true nature of their operational capability. Such basic information is especially critical now, as we enter the 2015 fighting season with the Afghans being fully responsible for their own security.    The importance of accurate and reliable personnel data to the United States and Afghan governments cannot be overStated. Every professional standing army or police force begins each day by identifying how many personnel are present for duty and what their capabilities are. In Afghanistan, this data will also determine the overall amount of U.S. funding for the ANSF.    I think The New York Times story, that broke just before noon, about the Afghan military operations and U.S. military operations highlight the importance of knowing what is the capability of the Afghan forces.    As the United States continues to shift its reconstruction funding to on-budget assistance, it is also important that this assistance be based on accurate and reliable data, and that the Afghan government is able to manage and account for such funds. Again, SIGAR's work shows that the Afghan government still lacks the capacity to do so.    The withdrawal of U.S. military and civilian personnel, as I said, is making this even more challenging to manage and oversee the reconstruction effort. Likewise, audit and law enforcement agencies have substantially reduced the number of staff they have based in Afghanistan. For example, the other IGs in law enforcement agencies have reduced their in-country staff by 45 percent, and may reduce it further as the State Department seeks to ``normalize'' civilian personnel staffing in Afghanistan. By mid-summer 2015, four other U.S. investigative agencies have indicated they intend to completely leave Afghanistan.    Since I was appointed Special Inspector General almost 3 years ago, I believe SIGAR has conducted highly effective, productive, and independent oversight. But our ability to do so may now be at risk. Just this past week, the U.S. embassy in Kabul informed SIGAR that because of the State Department requirement to normalize or right-size the civilian presence in Afghanistan, SIGAR must reduce its staff by 40 percent, from 42 to 25 deployed positions by the summer of 2016. SIGAR was told just Monday, at a senior leadership meeting at our embassy in Kabul, by a senior member of the embassy team, that that cut was non-negotiable. To be more precise, do not come back with an alternative number.    We were not consulted about this number, nor were we given any explanation for how this arbitrary number was determined.    Now, I am concerned about the impact these cuts will have on SIGAR's mission and on the U.S. reconstruction mission on a whole, because SIGAR is the largest oversight body in Afghanistan. While the U.S. reconstruction effort may have declined, compared to its highpoint, Afghanistan is still the largest single recipient of U.S. foreign assistance, and is projected to remain so for years to come. In other words, while our troops may be coming home, the checks will still be going over there for some time to come.    Thank you, Mr. Chairman, and I look forward to your questions.</t>
   </si>
   <si>
@@ -184,6 +202,12 @@
     <t>412623</t>
   </si>
   <si>
+    <t>Hice</t>
+  </si>
+  <si>
+    <t>Jody</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hice [presiding]. Yes, sir, please.</t>
   </si>
   <si>
@@ -236,6 +260,12 @@
   </si>
   <si>
     <t>412638</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Brenda</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Lawrence. Thank you, Mr. Chair.    Thank you, Mr. Sopko, for being here today. Ensuring that the daily attendance of Afghan police and military personnel is collected and recorded in an accurate manner is essential. I do want to say about your Statement that an H.R. system is put into place, my career prior to coming here to Congress involved almost 30 years in HR. So I find it unacceptable and hard to understand how we are paying people without having an H.R. system that validates who we are paying.    But with that being said, we know we can't have an effective personnel and payroll system if we don't know who showed up for work, simple roll call, and how often they were there. You agree, you made that Statement. So let's look at the ANA signature reporting for a moment.    In the report being released today, SIGAR found that the only control in place at the unit level to ensure accurate reporting on a day-to-day basis was a sign-in roster. Do I have that correct?</t>
@@ -725,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,7 +763,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,2549 +785,2986 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
         <v>17</v>
       </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G43" t="s">
+        <v>62</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G47" t="s">
+        <v>62</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G49" t="s">
+        <v>62</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G51" t="s">
+        <v>62</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G53" t="s">
+        <v>62</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G55" t="s">
+        <v>62</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G59" t="s">
+        <v>62</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G60" t="s">
+        <v>82</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G62" t="s">
+        <v>82</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G64" t="s">
+        <v>82</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G66" t="s">
+        <v>82</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G68" t="s">
+        <v>82</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>73</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G70" t="s">
+        <v>82</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>73</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G72" t="s">
+        <v>82</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G73" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>73</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G74" t="s">
+        <v>82</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>55</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G75" t="s">
+        <v>62</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G79" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G83" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G85" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
       <c r="H86" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G87" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
       <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G89" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
       <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G91" t="s">
+        <v>23</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
       <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G93" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
       <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>55</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G95" t="s">
+        <v>62</v>
+      </c>
       <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I95" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>55</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G97" t="s">
+        <v>62</v>
+      </c>
       <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I97" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G98" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>55</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G99" t="s">
+        <v>62</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G100" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>55</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G101" t="s">
+        <v>62</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I101" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G102" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>55</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G103" t="s">
+        <v>62</v>
+      </c>
       <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G104" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>55</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G105" t="s">
+        <v>62</v>
+      </c>
       <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G106" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>55</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G107" t="s">
+        <v>62</v>
+      </c>
       <c r="H107" t="s">
-        <v>120</v>
+        <v>63</v>
+      </c>
+      <c r="I107" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94837.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94837.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>412526</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>DeSantis</t>
@@ -755,7 +761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,7 +769,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,2983 +794,3208 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G51" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G57" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G59" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G64" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G68" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G70" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G72" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G74" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G75" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>23</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>23</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I86" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s">
-        <v>23</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I88" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I90" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s">
-        <v>23</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I92" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s">
-        <v>23</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>25</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I94" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G95" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I95" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>23</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G97" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I97" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>23</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G99" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I99" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s">
-        <v>23</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>25</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G101" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I101" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s">
-        <v>23</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>25</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G103" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I103" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s">
-        <v>23</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>25</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G105" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I105" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s">
-        <v>23</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G107" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I107" t="s">
-        <v>130</v>
+        <v>65</v>
+      </c>
+      <c r="J107" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
